--- a/main/test3.xlsx
+++ b/main/test3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C288"/>
+  <dimension ref="A1:C359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,113 +453,105 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Acerum</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Rhum</t>
-        </is>
-      </c>
+          <t>Fusionné</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>77.14285714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>amande</t>
+          <t>base vin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Amande (avec peau)</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>amaretto</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
+          <t>vin rosé</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vin rosé</t>
+        </is>
+      </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>amaro</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Calmar ou calamar ou encornet, cru</t>
-        </is>
-      </c>
+          <t>préférablement fumé</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>amer aromatique</t>
+          <t>confiture</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Herbes aromatiques fraîches (aliment moyen)</t>
+          <t>Confiture ou Marmelade, tout type de fruits, teneur en sucre inconnue (aliment moyen)</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>70.71428571428571</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amer aromatique</t>
+          <t>crème ou lait</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Herbes aromatiques fraîches (aliment moyen)</t>
+          <t>Crème de lait ou spécialité à base de crème légère, teneur en matière grasse inconnue (aliment moyen)</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>70.71428571428571</v>
+        <v>73.63636363636364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ananas</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Ananas, pulpe, cru</t>
-        </is>
-      </c>
+          <t>tisane passion</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>anis</t>
+          <t>sauce tomate</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apéritif anisé sans alcool</t>
+          <t>Boulettes au boeuf, à la sauce tomate, préemballées</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -569,7 +561,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>annelle râpée</t>
+          <t>orange et vanille le</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -580,78 +572,78 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aperitivo</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>cidre mousseux</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cidre doux</t>
+        </is>
+      </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>basilic</t>
+          <t>lacs</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Basilic, frais</t>
+          <t>Cervelas</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>beurre d’arachide</t>
+          <t>avril</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Huile d'arachide</t>
+          <t>Navarin d'agneau aux légumes</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>75.86206896551724</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>bière</t>
+          <t>whisky</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Saucisse de bière</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>bière blonde</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Bière blanche</t>
-        </is>
-      </c>
+          <t>vermouth ambré</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>78.26086956521739</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bière d’épinette</t>
+          <t>atypique</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -662,12 +654,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>bière de gingembre</t>
+          <t>whisky seigle</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -677,57 +669,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bière de gingembre</t>
+          <t>vodka</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Vodka</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bière noire</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Bière forte (&gt;8° alcool)</t>
-        </is>
-      </c>
+          <t>curaçao bleu</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>biscuit</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Biscuit apéritif soufflé, à base de pomme de terre</t>
-        </is>
-      </c>
+          <t>crème noix coco</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>blanc</t>
+          <t>vodka patate route</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Moules marinières (oignons et vin blanc)</t>
+          <t>Vodka</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -737,27 +721,23 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>blanc d’oeuf</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Oeuf, blanc (blanc d'oeuf), cuit</t>
-        </is>
-      </c>
+          <t>distillerie</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Blanc d’oeuf</t>
+          <t>datte</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Oeuf, blanc (blanc d'oeuf), cuit</t>
+          <t>Datte, pulpe et peau, sèche</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -767,82 +747,74 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>blancs</t>
+          <t>jus pur</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Poisson blanc sauce oseille, préemballé</t>
+          <t>Jus de lime, pur jus, prélevé à la Martinique</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>90</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>blended Scotch whisky</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Whisky</t>
-        </is>
-      </c>
+          <t>datte ou sirop</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>bleuet</t>
+          <t>jus lime</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cordon bleu de volaille, préemballé</t>
+          <t>Jus de tomate, pur jus (aliment moyen)</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>75.00000000000001</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Boisson à la crème</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Boisson à l'amande, nature, non sucrée, non enrichie, préemballée</t>
-        </is>
-      </c>
+          <t>préférablement chaud</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>76.15384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Boisson à la crème</t>
+          <t>thé infusé</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Boisson à l'amande, nature, non sucrée, non enrichie, préemballée</t>
+          <t>Thé infusé, non sucré</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>76.15384615384616</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>boisson au rhum et à la noix de coco, Malibu</t>
+          <t>thé matcha infusé</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -853,18 +825,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>boisson gazeuse au citron, 7 Up ou Sprite</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>grenadine</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Grenadier (de roche), cru</t>
+        </is>
+      </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>84.70588235294117</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>bonbon à l’orange</t>
+          <t>brandy</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
@@ -875,33 +851,37 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>boule de crème glacée à la vanille</t>
+          <t>rhum</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Andouille</t>
+          <t>Rhum</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>72</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>brandy</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
+          <t>tasse</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Oignon rouge, sauté/poêlé sans matière grasse</t>
+        </is>
+      </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cachaça</t>
+          <t>concentré café infusé froid</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
@@ -912,68 +892,68 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>café</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Crème dessert au café, rayon frais</t>
-        </is>
-      </c>
+          <t>jus vert green</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>calvados</t>
+          <t>filtrée</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eau de vie, type calvados</t>
+          <t>Jus de carambole, prélevé à la Martinique, jus filtré</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>90</v>
+        <v>83.07692307692308</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Campari</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>jus frais</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Jus de mangue, frais</t>
+        </is>
+      </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>canneberges</t>
+          <t>jus</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Canneberge ou cranberry, crue</t>
+          <t>Jus de fruits (aliment moyen)</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>85.71428571428571</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cannelle</t>
+          <t>bleu</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Pomme cannelle,  pulpe, crue, prélevée à la Martinique</t>
+          <t>Cordon bleu de volaille, préemballé</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -983,12 +963,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cantaloup</t>
+          <t>rhum agricole trois rivières cuvée</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Melon cantaloup (par ex.: Charentais, de Cavaillon) pulpe, cru</t>
+          <t>Rhum</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -998,72 +978,68 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>cardamome</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Cardamome, poudre</t>
-        </is>
-      </c>
+          <t>crème écossaise magnum</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>cardamone</t>
+          <t>pineau château réserve rouge ans</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cardamome, poudre</t>
+          <t>Neufchâtel</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cayenne</t>
+          <t>pineau</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Poivre de Cayenne ou piment de Cayenne</t>
+          <t>Bouchée à la reine, au poisson et fruits de mer</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>90</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>céleri</t>
+          <t>jus cerise</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Céleri branche, cru</t>
+          <t>Cerise, dénoyautée, crue</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cerise</t>
+          <t>ans</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tomate cerise, crue</t>
+          <t>Kumquat, sans pépin, cru</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1073,53 +1049,53 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>chai masala</t>
+          <t>whisky royal</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Salami</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Charentes</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Melon cantaloup (par ex.: Charentais, de Cavaillon) pulpe, cru</t>
-        </is>
-      </c>
+          <t>crème violette</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>70.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Chartreuse</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
+          <t>vodka vil</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Vodka</t>
+        </is>
+      </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>cidre</t>
+          <t>café</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Cidre (aliment moyen)</t>
+          <t>Crème dessert au café, rayon frais</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1129,12 +1105,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cirka Sauvage, gin</t>
+          <t>liqueur rhubarbe maison</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1144,184 +1120,176 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>citron</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Citron, pulpe, cru</t>
-        </is>
-      </c>
+          <t>tequila</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>citronnelle</t>
+          <t>jus tomate</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Brioche, de boulangerie traditionnelle</t>
+          <t>Légumes farcis (sauf tomate)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>77.14285714285715</v>
+        <v>74.11764705882352</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Clémentine</t>
+          <t>jus citron</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Clémentine ou Mandarine, pulpe, crue</t>
+          <t>Citron, pulpe, cru</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>clous de girofle</t>
+          <t>vermouth sec</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Clou de girofle</t>
+          <t>Apéritif à base de vin ou vermouth</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>96.2962962962963</v>
+        <v>75.78947368421052</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Club Soda</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
+          <t>coco</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Poulet au curry et au lait de coco</t>
+        </is>
+      </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>cognac</t>
+          <t>compote pomme</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Eau de vie de vin, type armagnac, cognac</t>
+          <t>Compote de pomme</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>90</v>
+        <v>92.30769230769231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cointreau</t>
+          <t>tasse liqueur amère</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fondue de poireau</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cola à la cerise</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
+          <t>sauvage gin</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>compote de pomme</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Compote de pomme</t>
-        </is>
-      </c>
+          <t>tasse tequila</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>compote de rhubarbe et fraise</t>
+          <t>nectar</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Compote de pomme</t>
+          <t>Nectarine ou brugnon, pulpe et peau, crue</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>70.43478260869566</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>concombre</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Salade de concombre à la crème/fromage blanc, préemballée</t>
-        </is>
-      </c>
+          <t>café froid</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>confiture</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Confiture ou Marmelade, tout type de fruits, teneur en sucre inconnue (aliment moyen)</t>
-        </is>
-      </c>
+          <t>vermouth blanc</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>confiture d’abricot</t>
+          <t>liqueur banane</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Confiture d'abricot (extra ou classique)</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1331,27 +1299,23 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>confiture de bleuet</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Confiture de lait</t>
-        </is>
-      </c>
+          <t>calvados grand</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>81.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>confiture de fraise</t>
+          <t>whisky black</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Confiture de fraise (extra ou classique)</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1361,12 +1325,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cornichon</t>
+          <t>whisky canadien</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Sandwich baguette, pâté, cornichons</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1376,179 +1340,179 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>crème 35%</t>
+          <t>liqueur amère</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Pomme de terre, flocons déshydratés, au lait ou à la crème</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>75.00000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>crème à fouettée 35%</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Fromage blanc et crème fouettée sur lit de fruits, sucré</t>
-        </is>
-      </c>
+          <t>chai infusé et refroidi</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>73.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>crème à fouetter 35%</t>
+          <t>lait</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Fromage blanc et crème fouettée sur lit de fruits, sucré</t>
+          <t>Poulet au curry et au lait de coco</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>73.125</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>crème à la vanille</t>
+          <t>whisky bourbon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Andouille</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>crème au chocolat</t>
+          <t>dry gin</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Biscuit sec petit beurre au chocolat</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>crème au Dulce de leche</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
+          <t>nectar pêche</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nectar de pêche</t>
+        </is>
+      </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>91.66666666666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>crème choco-noisette</t>
+          <t>lait coco</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Noisette</t>
+          <t>Lait concentré non sucré, entier</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>90</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>crème de cassis</t>
+          <t>liqueur framboise</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Crème de cassis</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>crème de coco sucrée</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Cola, sucré</t>
-        </is>
-      </c>
+          <t>vermouth rouge</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>74.11764705882352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>crème de menthe</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr"/>
+          <t>liqueur sureau</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liqueur</t>
+        </is>
+      </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>crème de menthe blanche</t>
+          <t>vodka quartz</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Bière blanche</t>
+          <t>Vodka</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>crème de noix de coco</t>
+          <t>liqueur pêche</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Eau de coco</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>crème de violette</t>
+          <t>purée mangue</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1559,27 +1523,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>crème écossaise</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Crème de cassis</t>
-        </is>
-      </c>
+          <t>cola la cerise</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>74.07407407407408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>crème glacée</t>
+          <t>vodka aromatisée</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Glace à l'eau ou sorbet ou crème glacée, tout parfum (aliment moyen)</t>
+          <t>Vodka</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1589,123 +1549,143 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>crème, Amarula</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>liqueur et cognac grand</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liqueur</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>crème, Baileys</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr"/>
+          <t>jus mangue</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Mangue, pulpe, crue</t>
+        </is>
+      </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>crème, Saint-Crème</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr"/>
+          <t>rhum brun</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rhum</t>
+        </is>
+      </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>crème, Saint-Rémy</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr"/>
+          <t>boisson la noix coco</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Boisson à la noix de coco, nature, préemballée</t>
+        </is>
+      </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>75.48387096774194</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>curaçao bleu</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr"/>
+          <t>vodka pur vodka</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Vodka</t>
+        </is>
+      </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>curaço bleu</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Bleu de Gex ou Fromage bleu du Hautjura ou Bleu de septmoncel (AOC)</t>
-        </is>
-      </c>
+          <t>tasse bleuets</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>curcuma</t>
+          <t>raifort haché</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Curcuma, poudre</t>
+          <t>Raifort, cru</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>90</v>
+        <v>72.72727272727273</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>d&amp;rsquo;eau</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>salsa fraises et rhubarbe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Safran</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>d’eau</t>
+          <t>limona</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Blanquette de veau</t>
+          <t>Limonade, sucrée</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>77.14285714285715</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>de lait</t>
+          <t>sirop miel local</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Kéfir de lait</t>
+          <t>Miel</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -1715,74 +1695,78 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eau bouillante</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr"/>
+          <t>bien</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>SaintFélicien</t>
+        </is>
+      </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>eau de coco</t>
+          <t>purée poire</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Eau de coco</t>
+          <t>Goyave, pulpe, purée, prélevée à la Martinique</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>eau de fleur</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>mousse lait</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mousse liégeoise (chocolat, café, caramel ou vanille), rayon frais</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>eau de rose</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Eau de source, embouteillée (aliment moyen)</t>
-        </is>
-      </c>
+          <t>jus poire</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>eau filtrée</t>
+          <t>boisson la crème</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Veau, filet, cru</t>
+          <t>Boisson lactée, lait fermenté ou yaourt à boire, aromatisé, avec édulcorants, allégé en sucres, 0% MG, au L Casei</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>72.72727272727273</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>eau pétillante</t>
+          <t>sirop zeste</t>
         </is>
       </c>
       <c r="B97" t="inlineStr"/>
@@ -1793,98 +1777,94 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>eau-de-vie</t>
+          <t>whisky coureur bois</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Eau de vie</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>épices tarte à la citrouille*</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Tarte au citron</t>
-        </is>
-      </c>
+          <t>tasse limona</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>76.15384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>érable</t>
+          <t>crème menthe blanche</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Sirop d'érable</t>
+          <t>Bière blanche</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>espresso</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Artichaut, cuit à la vapeur sous pression</t>
-        </is>
-      </c>
+          <t>sirop thym</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>78.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>fleur comestible</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr"/>
+          <t>purée framboise</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Confiture de framboise (extra ou classique)</t>
+        </is>
+      </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>fraise</t>
+          <t>tasse vin blanc</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fraise, crue</t>
+          <t>Moules marinières (oignons et vin blanc)</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>90</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>framboise</t>
+          <t>liqueur triple sec</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Framboise, surgelée, crue</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -1894,12 +1874,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>fruit de la passion</t>
+          <t>maison</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Fruit de la passion ou maracudja, pulpe et pépins, cru</t>
+          <t>Salade de pommes de terre, fait maison</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -1909,22 +1889,22 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>garniture pour tarte à la citrouille</t>
+          <t>cidre glace</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tarte au citron</t>
+          <t>Biscuit moelleux fourré à l'orange et enrobé de sucre glace</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>76.15384615384616</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>gin</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -1939,27 +1919,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>gin</t>
+          <t>vodka optez pour une bonne qualité</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Vodka</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>gingembre</t>
+          <t>rhum épicé</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Rhum</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -1969,270 +1949,258 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>gousse de vanille</t>
+          <t>cognac</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Andouille</t>
+          <t>Eau de vie de vin, type armagnac, cognac</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>grains de café</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Grains de blé soufflés au miel ou caramel, enrichis en vitamines et minéraux</t>
-        </is>
-      </c>
+          <t>jus blanc</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>grenade</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Grenade, pulpe et pépins, crue</t>
-        </is>
-      </c>
+          <t>saumure cornichon</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>grenadine</t>
+          <t>liqueur</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Grenadier (de roche), cru</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>84.70588235294117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>hibiscus infusé</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr"/>
+          <t>mélange tarte la citrouille</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Tarte au citron</t>
+        </is>
+      </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>76.15384615384616</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>homard</t>
+          <t>fruit la passion</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Homard, bouilli/cuit à l'eau</t>
+          <t>Fruit de la passion ou maracudja, pulpe et pépins, cru</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>huile épicée</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>feuille</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Feuille de vigne farcie au riz ou dolmas, égouttée, préemballée</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>huître fraîche</t>
+          <t>sirop au</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Noix de coco, amande immature, fraîche</t>
+          <t>Abricot au sirop, appertisé, égoutté</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>78.26086956521739</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>jus ananas</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Ananas au jus d'ananas, égoutté, appertisé</t>
-        </is>
-      </c>
+          <t>ruban rhubarbe</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>jus d’ananas</t>
+          <t>botte rhubarbe tiges coupée en tronçons cm</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Ananas au jus d'ananas, égoutté, appertisé</t>
+          <t>Rhubarbe, tige, crue</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>90</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>jus d’orange</t>
+          <t>sorbet au citron</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Jus d'orange, à base de concentré</t>
+          <t>Tarte au citron</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>90</v>
+        <v>74.07407407407408</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>jus de bleuet pur</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr"/>
+          <t>tige menthe</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Boisson préparée à partir de sirop à diluer type menthe, fraise, etc, sucré, dilué dans l'eau</t>
+        </is>
+      </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>jus de canneberge</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Canneberge ou cranberry, crue</t>
-        </is>
-      </c>
+          <t>mi givre sel</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jus de cerise</t>
+          <t>part vin mousseux</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Confiture de cerise (extra ou classique)</t>
+          <t>Vin blanc mousseux</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>73.63636363636364</v>
+        <v>70.96774193548387</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>jus de citron</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Jus de citron punch (variété petit calibre), pur jus, prélevé à la Martinique</t>
-        </is>
-      </c>
+          <t>part pétillante</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>jus de clémentine frais</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Jus de clémentine ou mandarine, pur jus</t>
-        </is>
-      </c>
+          <t>teinture camomille optionnel</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>77.14285714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>jus de d’orange frais</t>
+          <t>gousses</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Jus de mangue, frais</t>
+          <t>Mesclun ou salade, mélange de jeunes pousses</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>84.84848484848484</v>
+        <v>83.07692307692308</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>jus de fraise</t>
+          <t>séchée</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Jus de raisin, pur jus</t>
+          <t>Tomate, séchée</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>jus de fruits</t>
+          <t>vanille</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Jus de fruits (aliment moyen)</t>
+          <t>Crème dessert à la vanille, appertisée</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -2242,27 +2210,23 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>jus de grenade pur (du commerce)</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Jus de grenade, pur jus</t>
-        </is>
-      </c>
+          <t>thé moulue</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>74.41860465116279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>jus de lime</t>
+          <t>tasse rhum épicé lacs</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Jus de lime, pur jus, prélevé à la Martinique</t>
+          <t>Rhum</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -2272,123 +2236,115 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>jus de mangue</t>
+          <t>tasse whisky</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Jus de mangue, frais</t>
+          <t>Whisky</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>81.4814814814815</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>jus de melon d’eau</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
+          <t>tasse raisins verts</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Raisin, sec</t>
+        </is>
+      </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>jus de pamplemousse</t>
+          <t>brochette raisins givrés</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Jus de pamplemousse (variété locale), pur jus, prélevé à la Martinique</t>
+          <t>Brochet, cru</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>90</v>
+        <v>74.11764705882352</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jus de poire</t>
+          <t>tuile sucre</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jus de pomme, à base de concentré</t>
+          <t>Légumes pour ratatouille, surgelés</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>74.11764705882352</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>jus de pomme</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Jus de pomme, à base de concentré</t>
-        </is>
-      </c>
+          <t>blanc fermes</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>jus de tomate</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Jus de tomate, pur jus, salé à 3 g/L</t>
-        </is>
-      </c>
+          <t>thé mélange tarte la</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>jus lime frais</t>
+          <t>pétales rose déshydratées</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Jus de mangue, frais</t>
+          <t>Carotte, déshydratée</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>71.42857142857143</v>
+        <v>73.17073170731707</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>jus orange</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Jus d'orange, à base de concentré</t>
-        </is>
-      </c>
+          <t>ruban céleri</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jus vert Green Goddess</t>
+          <t>petits cubes melon</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2399,42 +2355,38 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kombucha</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Kombucha, préemballé</t>
-        </is>
-      </c>
+          <t>fine tranche melon</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>lait 3,25%</t>
+          <t>du</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Lait 2e âge, poudre soluble (préparation de suite)</t>
+          <t>Fondue de poireau</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>75.00000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>lait d’amande non-sucré</t>
+          <t>cubes</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Limonade, non sucrée, avec édulcorants</t>
+          <t>Tarte aux noix de SaintJacques, préemballée</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -2444,7 +2396,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>lait d’avoine</t>
+          <t>bouquets basilic avec les tiges</t>
         </is>
       </c>
       <c r="B143" t="inlineStr"/>
@@ -2455,117 +2407,105 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>lait de coco</t>
+          <t>confiture baies</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Poulet au curry et au lait de coco</t>
+          <t>Crêpe fourrée à la confiture, maison</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>lait de poule</t>
+          <t>tagette</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Lait de poule, sans alcool</t>
+          <t>Sandwich grec ou Kebab, baguette, crudités</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>lanc d’oeuf</t>
+          <t>mélange sel casher et piment moulu</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Oeuf, blanc (blanc d'oeuf), cuit</t>
+          <t>Langres</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>lavande</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Hachis parmentier à la viande, préemballé</t>
-        </is>
-      </c>
+          <t>traits aromatique</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>77.14285714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>licorne</t>
+          <t>canette club soda</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Salicorne (Salicornia sp.), fraîche</t>
+          <t>Canelé</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Lillet</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Farine de millet</t>
-        </is>
-      </c>
+          <t>tiges basilic</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>81.81818181818181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>lime</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Dessert (aliment moyen)</t>
-        </is>
-      </c>
+          <t>bar épicée</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>limonade</t>
+          <t>bière</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Limonade, sucrée</t>
+          <t>Saucisse de bière</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -2575,18 +2515,22 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Limoncello</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr"/>
+          <t>sauge</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Sauge, fraîche</t>
+        </is>
+      </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>limoncello</t>
+          <t>tasse bananes congelées</t>
         </is>
       </c>
       <c r="B153" t="inlineStr"/>
@@ -2597,27 +2541,27 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>liqueur</t>
+          <t>poudre cacao</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Liqueur</t>
+          <t>Poudre cacaotée ou au chocolat pour boisson, sucrée</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>litchi</t>
+          <t>banane</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Litchi, pulpe, cru</t>
+          <t>Banane plantain, crue</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -2627,78 +2571,82 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Malibu</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr"/>
+          <t>zestes</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Zeste d'orange confit</t>
+        </is>
+      </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>81.81818181818181</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>mangue</t>
+          <t>sucre canne</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Mangue, pulpe, crue</t>
+          <t>Boisson à l'amande, nature, non sucrée, non enrichie, préemballée</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>marmelade</t>
+          <t>les zestes oranges</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Confiture ou Marmelade, tout type de fruits, teneur en sucre inconnue (aliment moyen)</t>
+          <t>Langres</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>90</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>melon</t>
+          <t>eau fleur</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Courge melonnette, pulpe, crue</t>
+          <t>Paupiette de veau, préemballée,  cuite au four</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>menthe</t>
+          <t>étoile</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Chocolat noir fourrage confiseur à la menthe</t>
+          <t>Tielle sétoise, préemballée</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>90</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>mezcal</t>
+          <t>tasse fane céleri</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -2709,147 +2657,127 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>miel</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Miel</t>
-        </is>
-      </c>
+          <t>gouttes aromatique</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mousse de lait </t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Mousse de foie de porc supérieure ou Crème de foie</t>
-        </is>
-      </c>
+          <t>petit avion en papier</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>mûre</t>
+          <t>arilles graines grena</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Mûre (de ronce), crue</t>
+          <t>Lin, graine</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>90</v>
+        <v>70.00000000000001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>muscade</t>
+          <t>tasse morceaux concombre</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Noix de muscade</t>
+          <t>Eau de coco</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>90</v>
+        <v>70.00000000000001</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>nectar d’abricot</t>
+          <t>confiture ou compote</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Nectar d'abricot</t>
+          <t>Confiture ou Marmelade, tout type de fruits, teneur en sucre inconnue (aliment moyen)</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>nectar de pêche</t>
+          <t>tranche pêche</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Nectar de pêche</t>
+          <t>Boeuf, tende de tranche, crue</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>105</v>
+        <v>70.43478260869566</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>nectar de poire</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Nectar de poire</t>
-        </is>
-      </c>
+          <t>fleurs camomille ou sachet camomille</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>œuf</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Brick au boeuf</t>
-        </is>
-      </c>
+          <t>mi poire tranchée finement</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>olive</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Sardine, à l'huile d'olive, appertisée, égouttée</t>
-        </is>
-      </c>
+          <t>beurre naturel</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Olive</t>
+          <t>mi</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Sardine, à l'huile d'olive, appertisée, égouttée</t>
+          <t>Mirabelle, crue</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -2859,12 +2787,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>orange</t>
+          <t>romarin</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Orange, pulpe, crue</t>
+          <t>Romarin, frais</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -2874,27 +2802,27 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>orange frais</t>
+          <t>fraîches</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Aneth, frais</t>
+          <t>Pâtes fraîches farcies (ex : raviolis, tortellinis), cuites (aliment moyen)</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>76.19047619047619</v>
+        <v>90</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>orchidée</t>
+          <t>branches romarin</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Cacahuète ou Arachide</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -2904,12 +2832,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>pamplemousse</t>
+          <t>râpée</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Pomelo (dit Pamplemousse), pulpe, cru</t>
+          <t>Carottes râpées, avec sauce, préemballées</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -2919,12 +2847,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>pêche</t>
+          <t>pomme</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Pêche, pulpe et peau, crue</t>
+          <t>Salade de pommes de terre, fait maison</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -2934,127 +2862,119 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>piment</t>
+          <t>tranche déshydraté</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Piment, cru</t>
+          <t>Soupe marocaine, déshydratée reconstituée</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>90</v>
+        <v>74.11764705882352</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>pisco</t>
+          <t>tasse poire ou nectar poire</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Picodon (fromage de chèvre)</t>
+          <t>Nectar de poire</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>80</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>poire</t>
+          <t>moulue</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Tarte ou Tourte aux poireaux, préemballée</t>
+          <t>Moules marinières (oignons et vin blanc)</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>90</v>
+        <v>81.81818181818181</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>poivre</t>
+          <t>tranche poire</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Canard en sauce (poivre vert, chasseur, etc.), préemballé</t>
+          <t>Boeuf, tende de tranche, crue</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>90</v>
+        <v>70.43478260869566</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>pomme</t>
+          <t>tasse en</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Salade de pommes de terre, fait maison</t>
+          <t>Tomme ou tome, allégée en matière grasse, environ 13% MG</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>90</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Poudre de cacao</t>
+          <t>marasquin</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Poudre cacaotée ou au chocolat pour boisson, sucrée</t>
+          <t>Gin</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>82.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>poudre de cacao cru</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Poudre cacaotée ou au chocolat pour boisson, sucrée</t>
-        </is>
-      </c>
+          <t>traits bitter céleri</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>73.33333333333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>purée de fraise</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Purée de fruits, tout type de fruits, type "compote sans sucres ajoutés"</t>
-        </is>
-      </c>
+          <t>traits solution saline ou pincée fleur sel</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>76.15384615384616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>purée de fraise et banane*</t>
+          <t>absinthe pour rincer le verre</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -3065,38 +2985,42 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>purée de framboise</t>
+          <t>cidre rosé pétillant</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Confiture de framboise (extra ou classique)</t>
+          <t>Cidre brut</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>78.75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>purée de mangue</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr"/>
+          <t>sachet chai ou mélange</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Langres</t>
+        </is>
+      </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>purée de pêche</t>
+          <t>nuage lait optionnel</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Purée de pommes, type "compote sans sucres ajoutés"</t>
+          <t>Bagel</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -3106,22 +3030,18 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>purée de poire</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Purée de pommes, type "compote sans sucres ajoutés"</t>
-        </is>
-      </c>
+          <t>feuilles sauge</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>77.14285714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>quartier d’orange</t>
+          <t>petite tranche pamplemousse</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -3132,63 +3052,67 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>radicchio</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr"/>
+          <t>fines herbes au choix</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Croûton à l'ail aux fines herbes ou aux oignons, préemballé</t>
+        </is>
+      </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>75.00000000000001</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>raifort</t>
+          <t>cidre mousseux avec ou sans alcool</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Raifort, cru</t>
+          <t>Cidre doux</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>82.35294117647058</v>
+        <v>74.11764705882352</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>raisin</t>
+          <t>mélange maison sel et feuilles pour</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Raisin blanc, à gros grain (type Italia ou Dattier), cru</t>
+          <t>Thé, feuille</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Reese</t>
+          <t>fraise</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cheeseburger, provenant de fast food</t>
+          <t>Fraise, crue</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>réglisse</t>
+          <t>tasse fleurs séchées</t>
         </is>
       </c>
       <c r="B195" t="inlineStr"/>
@@ -3199,97 +3123,77 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>rhubarbe</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Rhubarbe, tige, crue</t>
-        </is>
-      </c>
+          <t>essentielle</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr"/>
       <c r="C196" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>rhum</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Rhum</t>
-        </is>
-      </c>
+          <t>eau aromatisée au thé bois</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>romarin</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Romarin, frais</t>
-        </is>
-      </c>
+          <t>tranches pamplemousse</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>rondelles de concombre</t>
+          <t>pétillante</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Eau de coco</t>
+          <t>Pétillant de fruits</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>70.00000000000001</v>
+        <v>85.26315789473685</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>rose</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Groseille, crue</t>
-        </is>
-      </c>
+          <t>soda tonique</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr"/>
       <c r="C200" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>salicorne</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Salicorne (Salicornia sp.), fraîche</t>
-        </is>
-      </c>
+          <t>chai fous</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr"/>
       <c r="C201" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sambuca</t>
+          <t>sel pour givrer</t>
         </is>
       </c>
       <c r="B202" t="inlineStr"/>
@@ -3300,22 +3204,22 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sauce épicée</t>
+          <t>barbe papa</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Sauge, séchée</t>
+          <t>Nectar de papaye</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>72.72727272727273</v>
+        <v>70.00000000000001</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>sauce piquante</t>
+          <t>menthe pour les verres</t>
         </is>
       </c>
       <c r="B204" t="inlineStr"/>
@@ -3326,48 +3230,48 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sauce tomate</t>
+          <t>raisins verts</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Boulettes au boeuf, à la sauce tomate, préemballées</t>
+          <t>Raisin, sec</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>90</v>
+        <v>76.19047619047619</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>sauge</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Sauge, fraîche</t>
-        </is>
-      </c>
+          <t>thé fleur</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>saumure d&amp;rsquo;olive</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr"/>
+          <t>gingembre</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>saumure de cornichon</t>
+          <t>au jasmin et litchi</t>
         </is>
       </c>
       <c r="B208" t="inlineStr"/>
@@ -3378,122 +3282,134 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>saumure olive</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr"/>
+          <t>thé</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Thé infusé, non sucré</t>
+        </is>
+      </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>scotch</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr"/>
+          <t>cardamome moulue</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Cardamome, poudre</t>
+        </is>
+      </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Sel</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Raisin Chasselas, cru</t>
-        </is>
-      </c>
+          <t>dattes fraîches dénoyautées</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sel</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Raisin Chasselas, cru</t>
-        </is>
-      </c>
+          <t>sel pour le givre</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>seltzer orange et vanille, Le Seltzer</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr"/>
+          <t>passoire fine</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Pastis</t>
+        </is>
+      </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>sirop à la citrouille épicée</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr"/>
+          <t>framboises</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Framboise, surgelée, crue</t>
+        </is>
+      </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>sirop basilic</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr"/>
+          <t>cube sucre</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Beignet rond moelleux, sans fourrage, saupoudré de sucre</t>
+        </is>
+      </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>sirop d’agave</t>
+          <t>liqueur thé du labrador</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Liqueur</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>sirop d’agave</t>
+          <t>tête menthe</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Boisson préparée à partir de sirop à diluer type menthe, fraise, etc, sucré, dilué dans l'eau</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>105</v>
+        <v>72</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>sirop d’hibiscus</t>
+          <t>grain café</t>
         </is>
       </c>
       <c r="B218" t="inlineStr"/>
@@ -3504,7 +3420,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sirop d’orgeat</t>
+          <t>soda au sodas</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3515,22 +3431,22 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sirop dâ��agave</t>
+          <t>ruban concombre</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Concombre, pulpe et peau, cru</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>95.65217391304348</v>
+        <v>70.43478260869566</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop de basilic </t>
+          <t>tête basilic</t>
         </is>
       </c>
       <c r="B221" t="inlineStr"/>
@@ -3541,12 +3457,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>sirop de bleuet</t>
+          <t>saveur fruit la passion</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Sirop d'érable</t>
+          <t>Jus de fruit de la passion ou maracudja, prélevé à la Martinique, pur jus</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -3556,7 +3472,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sirop de café</t>
+          <t>tasse fraises du</t>
         </is>
       </c>
       <c r="B223" t="inlineStr"/>
@@ -3567,82 +3483,66 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>sirop de calamondin</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Gin</t>
-        </is>
-      </c>
+          <t>ombrelle papier</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>sirop de cannelle</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Canelé</t>
-        </is>
-      </c>
+          <t>fleur comestible</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
-        <v>75.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>sirop de chai masala</t>
-        </is>
-      </c>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Marsala</t>
-        </is>
-      </c>
+          <t>soda tonique préférablement aromatisé la fleur sureau</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr"/>
       <c r="C226" t="n">
-        <v>83.07692307692308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>sirop de chocolat</t>
+          <t>brin</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Cookie aux pépites de chocolat</t>
+          <t>Brick à l'oeuf, fait maison, cuit</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>76.15384615384616</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>sirop de citronnelle</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Sirop d'agave</t>
-        </is>
-      </c>
+          <t>fleur comestible ou boules melon</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
-        <v>70.00000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>sirop de datte</t>
+          <t>menthe mi lime flambée</t>
         </is>
       </c>
       <c r="B229" t="inlineStr"/>
@@ -3653,7 +3553,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>sirop de falernum</t>
+          <t>épice pour le givre</t>
         </is>
       </c>
       <c r="B230" t="inlineStr"/>
@@ -3664,100 +3564,100 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>sirop de fraise</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Sirop d'érable</t>
-        </is>
-      </c>
+          <t>quartier lime</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
       <c r="C231" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>sirop de framboise</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Coulis de fruits rouges (framboises, fraises, groseilles, cassis)</t>
-        </is>
-      </c>
+          <t>cuillère crème glacée sorbet la noix coco</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
-        <v>73.125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>sirop de fruit de la passion</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Jus de fruit de la passion ou maracudja, prélevé à la Martinique, pur jus</t>
-        </is>
-      </c>
+          <t>chips noix coco</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr"/>
       <c r="C233" t="n">
-        <v>77.72727272727272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>sirop de grenadine</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr"/>
+          <t>déshydraté</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Soupe aux légumes variés, déshydratée reconstituée</t>
+        </is>
+      </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>sirop de lavande</t>
+          <t>cacao en poudre</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Cardamome, poudre</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>72</v>
+        <v>78.57142857142857</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>sirop de licornede</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr"/>
+          <t>tasse sucre</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Canard en sauce (poivre vert, chasseur, etc.), préemballé</t>
+        </is>
+      </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>sirop de litchi</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr"/>
+          <t>thé piment</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Biscuit sec, petits fours en assortiment</t>
+        </is>
+      </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>sirop de menthe</t>
+          <t>mexicaine sol</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -3768,12 +3668,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sirop de miel</t>
+          <t>sel et paprika fumé pour le givre</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Miel</t>
+          <t>Paprika</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -3783,219 +3683,235 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>sirop de noisette</t>
+          <t>pincée</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Noisette</t>
+          <t>Huile ou graisse de coco (coprah), raffinée</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>sirop de pêche</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr"/>
+          <t>tasse fraises</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Tarte aux fraises</t>
+        </is>
+      </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>74.07407407407408</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>sirop de pin</t>
-        </is>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Gin</t>
-        </is>
-      </c>
+          <t>tranche fraise</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>sirop de radicchio</t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr"/>
+          <t>art</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Tartiflette, préemballée</t>
+        </is>
+      </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>sirop de romarin</t>
+          <t>ou</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Gin</t>
+          <t>Moussaka</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>72</v>
+        <v>90</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>sirop de sauge</t>
+          <t>quartier épice steak</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Quatre épices</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>78.26086956521739</v>
+        <v>73.33333333333334</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>sirop de sucre de canne</t>
+          <t>sirop</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Abricot au sirop léger, appertisé, égoutté</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>70.00000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>sirop de thym</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr"/>
+          <t>fumée</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Saucisse fumée, à cuire</t>
+        </is>
+      </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>sirop de tonique</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr"/>
+          <t>zeste</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Citron, zeste, cru</t>
+        </is>
+      </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>sirop de vanille</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Andouille</t>
-        </is>
-      </c>
+          <t>yogourt la noix coco</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr"/>
       <c r="C249" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">sirop de zeste de citron </t>
+          <t>la</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Paëlla</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>70.00000000000001</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>sirop érable</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Sirop d'érable</t>
-        </is>
-      </c>
+          <t>une pincée sel</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr"/>
       <c r="C251" t="n">
-        <v>95.65217391304348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>sirop ketosirop orange</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr"/>
+          <t>vin mousseux</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Vin blanc mousseux</t>
+        </is>
+      </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>81.4814814814815</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>sirop orange</t>
+          <t>sanguine</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Sirop d'agave</t>
+          <t>Jus d'orange sanguine, pur jus</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>72.72727272727273</v>
+        <v>90</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>sirop simple</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr"/>
+          <t>céréales type</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Céréales pour petit déjeuner chocolatées, non fourrées, enrichies en vitamines et minéraux</t>
+        </is>
+      </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>77.14285714285715</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>sirop simple</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr"/>
+          <t>tisane rhume biologique</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Rhum</t>
+        </is>
+      </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Soda</t>
+          <t>bâton réglisse coupé en morceaux</t>
         </is>
       </c>
       <c r="B256" t="inlineStr"/>
@@ -4006,7 +3922,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>soda au gingembre, Ginger Ale</t>
+          <t>réglisse</t>
         </is>
       </c>
       <c r="B257" t="inlineStr"/>
@@ -4017,34 +3933,42 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>soda tonique</t>
-        </is>
-      </c>
-      <c r="B258" t="inlineStr"/>
+          <t>miel</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Miel</t>
+        </is>
+      </c>
       <c r="C258" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>soupe de salsa de fraises et rhubarbe</t>
-        </is>
-      </c>
-      <c r="B259" t="inlineStr"/>
+          <t>citron déshydraté</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Soupe au potiron, déshydratée reconstituée</t>
+        </is>
+      </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>78.75</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>speck</t>
+          <t>saumure</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Pizza au speck ou jambon cru, préemballée</t>
+          <t>Olive noire, en saumure, égouttée</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -4054,63 +3978,59 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>sucre</t>
+          <t>poivre noir fraîchement moulu</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Compote, tout type de fruits, allégée en sucres</t>
+          <t>Noix, fraîche</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>90</v>
+        <v>81.81818181818181</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>sucre de noix de coco</t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Eau de coco</t>
-        </is>
-      </c>
+          <t>au chocolat bitter</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
       <c r="C262" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>sucre glace</t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Biscuit moelleux fourré à l'orange et enrobé de sucre glace</t>
-        </is>
-      </c>
+          <t>pincée moulue</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Tabasco</t>
-        </is>
-      </c>
-      <c r="B264" t="inlineStr"/>
+          <t>sucre</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Compote, tout type de fruits, allégée en sucres</t>
+        </is>
+      </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Tequila</t>
+          <t>noix râpée</t>
         </is>
       </c>
       <c r="B265" t="inlineStr"/>
@@ -4121,94 +4041,90 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>tequila</t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr"/>
+          <t>pêche</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Pêche, pulpe et peau, crue</t>
+        </is>
+      </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>thÃ© au jasmin infusÃ© et refroidi</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr"/>
+          <t>poivre rose</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Olives vertes, fourrées ou farcies (anchois, poivrons, etc.)</t>
+        </is>
+      </c>
       <c r="C267" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>thé</t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Thé infusé, non sucré</t>
-        </is>
-      </c>
+          <t>grains poivre rose concassés</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr"/>
       <c r="C268" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>thé extrait de vanille</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Andouille</t>
-        </is>
-      </c>
+          <t>tranche cantaloup</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>thym</t>
+          <t>piment oiseau épépiné</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Thym, frais</t>
+          <t>Piment, cru</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>tisane</t>
-        </is>
-      </c>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Tisane infusée, non sucrée</t>
-        </is>
-      </c>
+          <t>effilées</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
       <c r="C271" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Tonic maison</t>
+          <t>chocolat râpé</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Jus de citron, maison</t>
+          <t>Biscuit sec fourré fruits à coque (non ou légèrement chocolaté)</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4218,29 +4134,37 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>trait amer aromatique</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr"/>
+          <t>rose</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Groseille, crue</t>
+        </is>
+      </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>trait d’amer aromatique</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr"/>
+          <t>cidre pomme pétillant ou vin mousseux</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Vin blanc mousseux</t>
+        </is>
+      </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>73.33333333333334</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>traits d’amer</t>
+          <t>traits sauce anglaise</t>
         </is>
       </c>
       <c r="B275" t="inlineStr"/>
@@ -4251,57 +4175,49 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>vanille</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Crème dessert à la vanille, appertisée</t>
-        </is>
-      </c>
+          <t>un tour moulin poivre</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr"/>
       <c r="C276" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>vermouth</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Apéritif à base de vin ou vermouth</t>
-        </is>
-      </c>
+          <t>concombres et saupoudrées steak</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr"/>
       <c r="C277" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>viande grillée</t>
+          <t>persil plat</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Sardine, grillée</t>
+          <t>Moules farcies (matière grasse, persillade…), préemballées, crues</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>74.07407407407408</v>
+        <v>72</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>vin Blanc</t>
+          <t>céleri</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Moules marinières (oignons et vin blanc)</t>
+          <t>Céleri branche, cru</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -4311,132 +4227,1061 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>vin blanc</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Moules marinières (oignons et vin blanc)</t>
-        </is>
-      </c>
+          <t>petits quartiers lime</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>vin mousseux</t>
+          <t>concombre trempée dans le miel</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Vin blanc mousseux</t>
+          <t>Miel</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>81.4814814814815</v>
+        <v>90</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>vin orange</t>
+          <t>bière type</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Orange, pulpe, crue</t>
+          <t>Lait fermenté ou spécialité laitière type yaourt, aromatisé, sucré, au bifidus</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>vin rosé</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Vin rosé</t>
-        </is>
-      </c>
+          <t>tranche pomme</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>vin rouge</t>
+          <t>tranchées</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Vin rouge</t>
+          <t>Chorizo supérieur, doux ou fort, type charcuterie en tranches</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>105</v>
+        <v>84.70588235294117</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>vodka</t>
+          <t>concombre</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Vodka</t>
+          <t>Salade de concombre à la crème/fromage blanc, préemballée</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>whisky</t>
+          <t>tasse rhum la noix coco</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Whisky</t>
+          <t>Rhum</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Worcestershire</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr"/>
+          <t>surgelés</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Petits pois, surgelés, crus</t>
+        </is>
+      </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>zeste orange</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Zeste d'orange confit</t>
-        </is>
-      </c>
+          <t>sirop simple</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
-        <v>81.81818181818181</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>fleur</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Gratin de choufleur, préemballé</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>pamplemousse</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Pomelo (dit Pamplemousse), pulpe, cru</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>fleurs déshydratée</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Bouillon de viande et légumes type potaufeu, déshydraté</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>clous girofle</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Clou de girofle</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>thym</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Thym, frais</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>fraises</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Fruits rouges, crus (framboises, fraises, groseilles, cassis)</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>poudre thé matcha</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr"/>
+      <c r="C295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>tasse citronnelle coupée en morceaux</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr"/>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>coriandre</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Coriandre, graine</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>limona rose</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Limonade, sucrée, avec édulcorants</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>70.00000000000001</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>garniture lime</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr"/>
+      <c r="C299" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>garniture mangue</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Cake salé (garniture : fromage, légumes, viande, poisson, volaille, etc.), préemballé</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>garniture thym</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr"/>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>airelles pomme grena</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr"/>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>tranches gingembre</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>au gingembre</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>menthe</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Chocolat noir fourrage confiseur à la menthe</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>limona pétillante</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr"/>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>menthe bien fournie</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr"/>
+      <c r="C307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>garniture</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Choucroute, sans garniture, égouttée, cuite</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>garniture bleuets</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>garniture chocolat noir</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr"/>
+      <c r="C310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>vin mousseux brut nature cava</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Vin blanc mousseux</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>73.33333333333334</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>coupée en petits cubes</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr"/>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>pomme grena</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Pomme Granny Smith, pulpe, crue</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>branches thym</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr"/>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>crème glacée la vanille</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Andouille</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>chocolat noir</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Fondant au chocolat noir et crème anglaise, préemballé</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>cerise terre</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr"/>
+      <c r="C317" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>soda au gingembre ale</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>garniture menthe</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr"/>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>garniture sel pour givrer</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr"/>
+      <c r="C320" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>garniture sauge</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Toasts ou Canapés salés, garnitures diverses, préemballés</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>70.71428571428571</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>garniture pomme</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Pizza, sauce garniture pour</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>73.33333333333334</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>garniture branche sapin</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>garniture cube grillée</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr"/>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>cube grillée</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Agneau, côtelette, grillée</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>75.78947368421052</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>tasse cubes melon</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr"/>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>feuilles menthe</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr"/>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>feuilles pour les verres</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Thé, feuille</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>74.11764705882352</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>garniture pince homard salicornes et citron</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Marsala</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>77.14285714285715</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>pince homard</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr"/>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>gingembre frais</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Gin</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>petit bouquet lilas</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr"/>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>pour les verres</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr"/>
+      <c r="C333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>aromatique</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Herbes aromatiques fraîches (aliment moyen)</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>sucre blanc pour givrer</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Sucre blanc</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>lime</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Dessert (aliment moyen)</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>branche romarin pour les verres</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>le jus huître</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>garniture basilic</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>cubes melon</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>tranche melon</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr"/>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>vin blanc</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Moules marinières (oignons et vin blanc)</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>tranche concombre salé</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Bresaola</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>soda</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>vin rouge</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Vin rouge</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>citron</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Citron, pulpe, cru</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>eau pétillante ou soda tonique</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr"/>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>part jus frais</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr"/>
+      <c r="C348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>grosse citrouille en guise bol punch</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr"/>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>bâtons cannelle pour les verres</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Cannelle, poudre</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>83.57142857142858</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>tasse et framboises fraîches</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Sauge, fraîche</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>70.43478260869566</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>sauce anglaise</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>sauce piquante</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr"/>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>tomates cerises</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Tomate cerise, crue</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>basilic</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Basilic, frais</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>feuilles basilic</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Thé, feuille</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>74.11764705882352</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>tranches pomme</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>cannelle</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Pomme cannelle,  pulpe, crue, prélevée à la Martinique</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>boisson gazeuse au citron ou</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Boisson gazeuse aux fruits (de 10 à 50% de jus), sucrée</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>73.63636363636364</v>
       </c>
     </row>
   </sheetData>
